--- a/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 9,84</t>
+          <t>1,97; 9,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,13</t>
+          <t>10,17; 19,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 19,81</t>
+          <t>8,59; 19,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,64</t>
+          <t>-3,27; 8,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,76; 192,96</t>
+          <t>21,45; 181,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,18; 269,7</t>
+          <t>90,65; 283,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,7; 217,68</t>
+          <t>65,41; 211,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 182,48</t>
+          <t>-36,97; 175,75</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 30,12</t>
+          <t>19,31; 30,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,51; 37,15</t>
+          <t>27,12; 38,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 28,68</t>
+          <t>17,81; 28,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 14,62</t>
+          <t>3,48; 15,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,82; 137,27</t>
+          <t>72,59; 138,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,14; 130,05</t>
+          <t>80,48; 134,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 100,18</t>
+          <t>51,0; 101,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 151,06</t>
+          <t>19,47; 159,21</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 19,29</t>
+          <t>7,79; 19,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 24,66</t>
+          <t>15,05; 25,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 20,54</t>
+          <t>10,73; 20,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 7,66</t>
+          <t>-2,41; 8,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 46,29</t>
+          <t>16,79; 46,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,11; 42,25</t>
+          <t>23,55; 44,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 44,69</t>
+          <t>20,5; 45,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 40,63</t>
+          <t>-10,44; 42,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,29</t>
+          <t>-3,62; 7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 10,36</t>
+          <t>-0,66; 10,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 8,47</t>
+          <t>-1,5; 8,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,85</t>
+          <t>-2,86; 4,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 39,95</t>
+          <t>-15,42; 37,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 29,69</t>
+          <t>-1,91; 31,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 35,95</t>
+          <t>-5,56; 37,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 43,77</t>
+          <t>-17,59; 44,89</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 15,71</t>
+          <t>6,86; 15,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 15,5</t>
+          <t>4,92; 15,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,86</t>
+          <t>-0,42; 7,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,97</t>
+          <t>-1,3; 4,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>96,52; 455,19</t>
+          <t>86,99; 418,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,12; 159,08</t>
+          <t>34,78; 152,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 116,88</t>
+          <t>-5,86; 111,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 72,67</t>
+          <t>-12,6; 67,57</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,88</t>
+          <t>0,57; 6,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,79</t>
+          <t>1,1; 7,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 8,35</t>
+          <t>2,07; 8,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,96; 34,83</t>
+          <t>6,95; 37,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 121,34</t>
+          <t>7,17; 131,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 138,83</t>
+          <t>10,65; 136,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,83; 156,36</t>
+          <t>24,45; 178,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,45; 272,0</t>
+          <t>45,95; 276,89</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,33</t>
+          <t>8,15; 12,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,4; 15,94</t>
+          <t>10,9; 15,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,49</t>
+          <t>7,24; 11,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 14,93</t>
+          <t>3,93; 15,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,29; 64,13</t>
+          <t>38,66; 65,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,35; 57,28</t>
+          <t>36,42; 56,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,35; 50,57</t>
+          <t>28,86; 51,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 112,97</t>
+          <t>28,02; 123,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,52</t>
+          <t>2,26; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,17; 19,82</t>
+          <t>10,55; 20,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 19,01</t>
+          <t>8,45; 19,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,45; 181,21</t>
+          <t>25,47; 197,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,65; 283,1</t>
+          <t>92,46; 284,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,41; 211,26</t>
+          <t>61,61; 207,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,31; 30,05</t>
+          <t>19,54; 29,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,12; 38,11</t>
+          <t>27,46; 38,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 28,82</t>
+          <t>17,29; 28,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,59; 138,86</t>
+          <t>72,71; 136,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,48; 134,06</t>
+          <t>81,04; 137,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,0; 101,15</t>
+          <t>49,73; 98,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 19,11</t>
+          <t>7,88; 18,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 25,24</t>
+          <t>15,24; 24,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,92</t>
+          <t>9,89; 20,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 46,64</t>
+          <t>16,97; 45,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,55; 44,23</t>
+          <t>23,5; 42,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,5; 45,05</t>
+          <t>18,89; 44,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,06</t>
+          <t>-3,57; 7,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 10,66</t>
+          <t>-0,98; 10,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,72</t>
+          <t>-1,16; 8,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 37,51</t>
+          <t>-15,59; 41,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 31,24</t>
+          <t>-2,28; 31,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 37,15</t>
+          <t>-4,51; 38,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,92</t>
+          <t>7,01; 15,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 15,53</t>
+          <t>4,63; 15,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,59</t>
+          <t>-0,48; 7,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,99; 418,31</t>
+          <t>89,1; 413,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,78; 152,11</t>
+          <t>30,39; 153,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 111,09</t>
+          <t>-5,8; 113,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,87</t>
+          <t>0,56; 6,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,86</t>
+          <t>1,39; 7,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,9</t>
+          <t>2,35; 8,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 131,8</t>
+          <t>4,4; 126,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,65; 136,08</t>
+          <t>15,69; 139,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,45; 178,91</t>
+          <t>27,18; 164,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,42</t>
+          <t>8,15; 12,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,87</t>
+          <t>11,03; 15,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,68</t>
+          <t>7,22; 11,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,66; 65,08</t>
+          <t>38,4; 64,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,42; 56,87</t>
+          <t>36,65; 57,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,86; 51,8</t>
+          <t>29,16; 51,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>163,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>127,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,55; 20,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,47; 197,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,46; 284,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,61; 207,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 175,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>103,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>103,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,54; 29,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,46; 38,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 28,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 15,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,71; 136,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,04; 137,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,73; 98,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,47; 159,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 18,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,24; 24,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 20,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,97; 45,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 42,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 44,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 42,7</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 7,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 10,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 8,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 41,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 31,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 38,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 44,89</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>214,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 15,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 7,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,1; 413,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,39; 153,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 113,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 67,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>116,02%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,95; 37,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 126,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,69; 139,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,18; 164,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,95; 276,89</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,4; 64,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,65; 57,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,16; 51,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,02; 123,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,43%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 21,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,85; 33,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,71; 36,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 8,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,78; 135,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,59; 137,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,16; 138,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,52; 474,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,88%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,0; 25,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,89; 29,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,9; 19,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 13,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,08; 46,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,58; 47,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,54; 27,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,12; 236,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 14,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,72; 24,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 13,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 7,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 25,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,63; 34,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 19,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; 56,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,3%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 21,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,14; 28,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 18,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 10,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,98; 57,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,37; 46,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 38,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,57; 282,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,26%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,24; 24,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,56; 11,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,18; 7,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 4,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,92; 180,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,5; 31,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,08; 29,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 105,09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>899,4%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 12,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 8,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 10,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 74,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,64; 285,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,41; 112,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 170,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,36; 3289,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 3,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 8,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 10,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 3,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,68; 41,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,01; 174,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 195,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,56; 68,32</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,21</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8,89</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>115,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 12,35</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,08; 15,09</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 10,01</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 24,0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15,62; 34,79</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 31,63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8,0; 23,76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>40,8; 332,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 21,71</t>
+          <t>4,05; 22,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 33,62</t>
+          <t>13,96; 33,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,71; 36,43</t>
+          <t>14,07; 36,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 8,16</t>
+          <t>-0,06; 8,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 135,05</t>
+          <t>15,17; 146,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,59; 137,26</t>
+          <t>38,41; 136,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,16; 138,85</t>
+          <t>34,95; 138,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 474,85</t>
+          <t>-15,56; 564,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 25,45</t>
+          <t>10,79; 25,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 29,96</t>
+          <t>18,78; 29,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 19,25</t>
+          <t>5,5; 19,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 13,88</t>
+          <t>1,29; 13,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,08; 46,84</t>
+          <t>17,64; 47,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 47,54</t>
+          <t>26,2; 46,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 27,9</t>
+          <t>7,01; 27,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 236,96</t>
+          <t>16,26; 223,13</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 14,54</t>
+          <t>3,01; 14,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 24,75</t>
+          <t>16,21; 24,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 13,29</t>
+          <t>2,41; 13,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 7,87</t>
+          <t>-3,03; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 25,51</t>
+          <t>4,75; 25,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,63; 34,83</t>
+          <t>20,88; 35,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 19,47</t>
+          <t>3,21; 19,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 56,22</t>
+          <t>-15,09; 50,81</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 21,1</t>
+          <t>3,76; 21,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 28,18</t>
+          <t>14,92; 28,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 18,4</t>
+          <t>1,96; 18,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,92</t>
+          <t>1,25; 11,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 57,58</t>
+          <t>7,41; 56,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,37; 46,45</t>
+          <t>21,58; 47,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 38,16</t>
+          <t>3,32; 37,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 282,67</t>
+          <t>10,81; 312,81</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 24,2</t>
+          <t>3,41; 25,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 11,85</t>
+          <t>-11,21; 10,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 7,56</t>
+          <t>-14,18; 8,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,67</t>
+          <t>-0,15; 4,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 180,39</t>
+          <t>11,83; 195,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 31,77</t>
+          <t>-21,16; 28,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 29,82</t>
+          <t>-35,43; 35,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 105,09</t>
+          <t>-2,62; 112,23</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 12,11</t>
+          <t>3,64; 12,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 8,98</t>
+          <t>-1,41; 8,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 10,41</t>
+          <t>0,13; 10,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 74,24</t>
+          <t>2,22; 70,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,64; 285,17</t>
+          <t>37,74; 299,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 112,19</t>
+          <t>-12,63; 110,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 170,71</t>
+          <t>0,18; 177,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,36; 3289,78</t>
+          <t>48,82; 2978,43</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 3,15</t>
+          <t>-7,4; 3,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,65</t>
+          <t>-1,94; 8,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 10,52</t>
+          <t>0,43; 10,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,45</t>
+          <t>-2,57; 3,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,68; 41,66</t>
+          <t>-51,57; 47,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 174,21</t>
+          <t>-20,02; 159,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 195,92</t>
+          <t>2,48; 204,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 68,32</t>
+          <t>-28,71; 66,03</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,35</t>
+          <t>5,88; 12,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,08; 15,09</t>
+          <t>9,28; 15,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,01</t>
+          <t>3,95; 10,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,43; 24,0</t>
+          <t>3,41; 24,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,62; 34,79</t>
+          <t>14,98; 34,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,68; 31,63</t>
+          <t>18,16; 32,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 23,76</t>
+          <t>8,82; 24,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,8; 332,44</t>
+          <t>42,17; 321,31</t>
         </is>
       </c>
     </row>
